--- a/Mifos Automation Excels/Client/2476-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-PERIODIC-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2476-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-PERIODIC-Makerepayment2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -77,9 +72,6 @@
     <t>Disbursement</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Original</t>
   </si>
   <si>
@@ -209,20 +201,23 @@
     <t>$ 41</t>
   </si>
   <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
     <t>$ 836.73</t>
   </si>
   <si>
+    <t>$ 877.73</t>
+  </si>
+  <si>
     <t>$ 82.63</t>
-  </si>
-  <si>
-    <t>$ 877.73</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +236,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -321,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -366,7 +369,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +436,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,26 +469,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,23 +504,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,15 +694,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="10">
         <v>42064</v>
@@ -761,22 +735,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -866,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -1577,7 +1551,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,50 +1569,52 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>81</v>
+        <v>555</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7">
         <v>42095</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="6">
         <v>82.63</v>
@@ -1663,16 +1639,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7">
         <v>42064</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6">
         <v>877.73</v>
@@ -1697,16 +1673,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="7">
         <v>42064</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="6">
         <v>41</v>
@@ -1731,10 +1707,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7">
         <v>42064</v>
@@ -1765,16 +1741,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>42036</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="6">
         <v>50</v>
@@ -1799,16 +1775,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>42036</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6">
         <v>950</v>
@@ -1833,10 +1809,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7">
         <v>42005</v>
@@ -1862,8 +1838,8 @@
       <c r="J8" s="8">
         <v>5000</v>
       </c>
-      <c r="K8"/>
-      <c r="L8"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1875,7 +1851,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,31 +1868,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1924,25 +1900,25 @@
         <v>151</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="12">
         <v>42005</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="I2" s="13"/>
     </row>
@@ -1951,26 +1927,26 @@
         <v>154</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="12">
         <v>42005</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2000,31 +1976,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2032,26 +2008,26 @@
         <v>145</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7">
         <v>42036</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2059,26 +2035,26 @@
         <v>146</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7">
         <v>42036</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2086,25 +2062,25 @@
         <v>147</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="7">
         <v>42036</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="19"/>
     </row>
@@ -2136,31 +2112,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2168,25 +2144,25 @@
         <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7">
         <v>42064</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>43</v>
       </c>
       <c r="I2" s="18"/>
     </row>
@@ -2195,26 +2171,26 @@
         <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7">
         <v>42064</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2227,7 +2203,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,37 +2216,37 @@
     <col min="6" max="6" width="11" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="14" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2278,26 +2254,26 @@
         <v>158</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="17">
         <v>42064</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="G2" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="20"/>
-      <c r="I2" s="20" t="s">
-        <v>59</v>
+      <c r="I2" s="23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2305,56 +2281,57 @@
         <v>159</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="17">
         <v>42064</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="H3" s="20"/>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>160</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="17">
         <v>42064</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="G4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>62</v>
+        <v>43</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2362,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,31 +2358,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2413,25 +2390,25 @@
         <v>150</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7">
         <v>42036</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -2440,26 +2417,26 @@
         <v>151</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7">
         <v>42036</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2471,25 +2448,25 @@
         <v>152</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7">
         <v>42064</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="21"/>
     </row>
@@ -2498,26 +2475,26 @@
         <v>153</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>42064</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2529,25 +2506,25 @@
         <v>161</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7">
         <v>42095</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="I8" s="21"/>
     </row>
@@ -2556,26 +2533,26 @@
         <v>162</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7">
         <v>42095</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
-        <v>61</v>
+      <c r="I9" s="23" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
